--- a/testdata/registration.xlsx
+++ b/testdata/registration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>firstname</t>
   </si>
@@ -99,9 +99,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>lalit</t>
   </si>
   <si>
@@ -123,9 +120,6 @@
     <t>mobile</t>
   </si>
   <si>
-    <t>result</t>
-  </si>
-  <si>
     <t>alias</t>
   </si>
   <si>
@@ -133,16 +127,12 @@
   </si>
   <si>
     <t>company</t>
-  </si>
-  <si>
-    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -487,25 +477,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="19" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="30">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="30">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -540,7 +530,7 @@
         <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>14</v>
@@ -558,16 +548,13 @@
         <v>17</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -575,7 +562,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -623,24 +610,21 @@
         <v>1234</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
-      </c>
-      <c r="T2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E3">
         <v>12</v>
@@ -664,13 +648,13 @@
         <v>26</v>
       </c>
       <c r="L3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" t="s">
         <v>31</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
       </c>
       <c r="O3" t="s">
         <v>23</v>
@@ -685,10 +669,7 @@
         <v>9821</v>
       </c>
       <c r="S3" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
